--- a/sample_info.xlsx
+++ b/sample_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maikofurubayashi/OneDrive/14_file_archives/methods protocols/hplc data analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maiko/GitHub/hplc-analysis-hitachi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{B3F56CA2-C855-D143-9A10-466A2D6AEF9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{8BB64863-6893-7046-92C3-3AE8432F4ABE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88CB535-F039-4E40-A11A-9F0EC11198AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10360" yWindow="5300" windowWidth="28040" windowHeight="17440" xr2:uid="{8FA68C9D-B563-0D44-B71F-437A97F2EEB5}"/>
+    <workbookView xWindow="7340" yWindow="6560" windowWidth="17480" windowHeight="17440" xr2:uid="{8FA68C9D-B563-0D44-B71F-437A97F2EEB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>sample no</t>
   </si>
@@ -36,97 +36,87 @@
     <t>file directory</t>
   </si>
   <si>
-    <t>20190810 hplc</t>
-  </si>
-  <si>
-    <t>beta</t>
-  </si>
-  <si>
-    <t>zea</t>
-  </si>
-  <si>
     <t>start time</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>end time</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>all chromato</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>each data</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>all chromato output name</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>y</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>each data</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>all chromato output name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>vio</t>
-  </si>
-  <si>
-    <t>vio-c1</t>
-  </si>
-  <si>
-    <t>vio-c2</t>
-  </si>
-  <si>
-    <t>vio-l1</t>
-  </si>
-  <si>
-    <t>vio-l2</t>
-  </si>
-  <si>
-    <t>vio-i</t>
-  </si>
-  <si>
-    <t>vio-ic</t>
-  </si>
-  <si>
-    <t>vio-lc</t>
-  </si>
-  <si>
-    <t>zea-ca</t>
-  </si>
-  <si>
-    <t>zea-at</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>J23117-viol</t>
+  </si>
+  <si>
+    <t>J23115-viol</t>
+  </si>
+  <si>
+    <t>J23107-viol</t>
+  </si>
+  <si>
+    <t>J23101-viol</t>
+  </si>
+  <si>
+    <t>J23117-asta</t>
+  </si>
+  <si>
+    <t>J23115-asta</t>
+  </si>
+  <si>
+    <t>J23107-asta</t>
+  </si>
+  <si>
+    <t>J23101-asta</t>
+  </si>
+  <si>
+    <t>20200214 ex20 Jxx-viola-asta</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Viol-Asta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -154,7 +144,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,18 +459,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536071A9-2C85-C84C-8EA0-45D1BB085113}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="3" max="3" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,137 +481,105 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>